--- a/tut04/output_by_subject/PH701.csv.xlsx
+++ b/tut04/output_by_subject/PH701.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,116 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2121PH06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PH701</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2121PH09</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PH701</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>AUDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2121PH21</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PH701</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2121PH13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PH701</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2121PH01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PH701</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
